--- a/Examples/AcPowerSystem/NET_NYPS_68Bus/NETS_NYPS_68Bus.xlsx
+++ b/Examples/AcPowerSystem/NET_NYPS_68Bus/NETS_NYPS_68Bus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\Examples\AcPowerSystem\NET_NYPS_68Bus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luteb\Documents\GitHub\Simplus-Grid-Tool\Examples\AcPowerSystem\NET_NYPS_68Bus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E63845-A37D-4E22-8303-97EB9B8F6E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00BE9A39-F9B1-4F87-8DBE-04C5AD83278C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14910" yWindow="3405" windowWidth="27045" windowHeight="15345" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -246,13 +246,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -261,7 +261,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -269,7 +269,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -277,7 +277,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -285,13 +285,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -304,7 +304,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -357,7 +357,7 @@
     <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -642,15 +642,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="11.19921875" customWidth="1"/>
-    <col min="9" max="9" width="10.796875" customWidth="1"/>
-    <col min="10" max="10" width="11.1328125" customWidth="1"/>
+    <col min="4" max="4" width="11.25" customWidth="1"/>
+    <col min="9" max="9" width="10.75" customWidth="1"/>
+    <col min="10" max="10" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.4">
@@ -3292,25 +3292,25 @@
   <dimension ref="A1:J70"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.796875" customWidth="1"/>
-    <col min="2" max="2" width="29.53125" customWidth="1"/>
+    <col min="1" max="1" width="12.75" customWidth="1"/>
+    <col min="2" max="2" width="29.5" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="15.19921875" customWidth="1"/>
-    <col min="5" max="5" width="12.46484375" customWidth="1"/>
-    <col min="6" max="6" width="13.53125" customWidth="1"/>
-    <col min="7" max="7" width="13.796875" customWidth="1"/>
-    <col min="8" max="8" width="15.1328125" customWidth="1"/>
-    <col min="9" max="9" width="18.796875" customWidth="1"/>
-    <col min="10" max="10" width="18.53125" customWidth="1"/>
-    <col min="11" max="11" width="17.1328125" customWidth="1"/>
-    <col min="12" max="12" width="17.86328125" customWidth="1"/>
-    <col min="13" max="13" width="14.46484375" customWidth="1"/>
-    <col min="14" max="14" width="13.1328125" customWidth="1"/>
+    <col min="4" max="4" width="15.25" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
+    <col min="8" max="8" width="15.125" customWidth="1"/>
+    <col min="9" max="9" width="18.75" customWidth="1"/>
+    <col min="10" max="10" width="18.5" customWidth="1"/>
+    <col min="11" max="11" width="17.125" customWidth="1"/>
+    <col min="12" max="12" width="17.875" customWidth="1"/>
+    <col min="13" max="13" width="14.5" customWidth="1"/>
+    <col min="14" max="14" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
@@ -4137,14 +4137,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D00B5E-E2E7-41B8-8388-8931D474EA96}">
   <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="5" max="5" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.53125" customWidth="1"/>
+    <col min="5" max="5" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
@@ -6114,10 +6114,10 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="7" max="7" width="14.86328125" customWidth="1"/>
+    <col min="7" max="7" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
@@ -6159,16 +6159,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB93A31-1E5A-4104-8C10-8E6599437516}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="18.53125" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="15.796875" customWidth="1"/>
+    <col min="4" max="4" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
@@ -6220,13 +6220,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFCB373-2341-40B6-A375-7BA50357479A}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="30.1328125" customWidth="1"/>
+    <col min="1" max="1" width="30.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
@@ -6320,7 +6320,7 @@
         <v>41</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
